--- a/FencingScrapper/FencingScrapper/bin/Debug/mkrecovery.xlsx
+++ b/FencingScrapper/FencingScrapper/bin/Debug/mkrecovery.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Finance - 1 4 2018" sheetId="1" r:id="rId1"/>
+    <sheet name="Finance - 1 6 2018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Name of Company</t>
   </si>
@@ -29,7 +29,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>address</t>
+    <t>Company Url</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Alabama Alabama Association of Christian Recovery Ministries www.aacrm.net/Certified-Life-Recovery-Coach</t>
@@ -1187,17 +1190,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1221,80 +1225,74 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1302,43 +1300,43 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1346,10 +1344,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -1357,164 +1355,164 @@
         <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1522,120 +1520,120 @@
         <v>57</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1643,142 +1641,142 @@
         <v>78</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -1786,109 +1784,109 @@
         <v>103</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -1896,142 +1894,142 @@
         <v>122</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="0" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -2039,252 +2037,252 @@
         <v>147</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>148</v>
+        <v>8</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="99">
@@ -2292,10 +2290,10 @@
         <v>192</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="100">
@@ -2303,32 +2301,32 @@
         <v>193</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>194</v>
+        <v>8</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="103">
@@ -2336,21 +2334,21 @@
         <v>198</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="105">
@@ -2358,43 +2356,43 @@
         <v>201</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>202</v>
+        <v>8</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="109">
@@ -2402,197 +2400,197 @@
         <v>208</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>209</v>
+        <v>8</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" s="0" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="0" t="s">
         <v>216</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" s="0" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="0" t="s">
         <v>226</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="0" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="0" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="0" t="s">
         <v>230</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" s="0" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F121" s="0" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="0" t="s">
         <v>234</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="0" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -2600,21 +2598,21 @@
         <v>243</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>244</v>
+        <v>8</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -2622,65 +2620,65 @@
         <v>246</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="0" t="s">
-        <v>247</v>
+        <v>8</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F131" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -2688,120 +2686,120 @@
         <v>257</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="0" t="s">
-        <v>258</v>
+        <v>8</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F137" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" s="0" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" s="0" t="s">
-        <v>239</v>
+        <v>8</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" s="0" t="s">
-        <v>268</v>
+        <v>8</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F143" s="0" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="146">
@@ -2809,54 +2807,54 @@
         <v>276</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" s="0" t="s">
-        <v>277</v>
+        <v>8</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F149" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F150" s="0" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="151">
@@ -2864,10 +2862,10 @@
         <v>285</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" s="0" t="s">
-        <v>281</v>
+        <v>8</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="152">
@@ -2875,164 +2873,164 @@
         <v>286</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" s="0" t="s">
-        <v>287</v>
+        <v>8</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="0" t="s">
         <v>288</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="0" t="s">
         <v>294</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" s="0" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" s="0" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>61</v>
+        <v>301</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="0" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>302</v>
+        <v>62</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" s="0" t="s">
-        <v>303</v>
+        <v>8</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="0" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="0" t="s">
         <v>306</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="167">
@@ -3040,76 +3038,76 @@
         <v>313</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>314</v>
+        <v>8</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="174">
@@ -3117,120 +3115,120 @@
         <v>326</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" s="0" t="s">
-        <v>327</v>
+        <v>8</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="B175" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" s="0" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" s="0" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F178" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F179" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G180" s="0" t="s">
         <v>338</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F180" s="0" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="0" t="s">
         <v>340</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" s="0" t="s">
-        <v>274</v>
+        <v>8</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" s="0" t="s">
-        <v>342</v>
+        <v>8</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F184" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="185">
@@ -3238,21 +3236,21 @@
         <v>344</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F185" s="0" t="s">
-        <v>345</v>
+        <v>8</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="187">
@@ -3260,54 +3258,54 @@
         <v>347</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F187" s="0" t="s">
-        <v>348</v>
+        <v>8</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" s="0" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F190" s="0" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="192">
@@ -3315,64 +3313,64 @@
         <v>356</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F192" s="0" t="s">
-        <v>357</v>
+        <v>8</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="0" t="s">
         <v>362</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="0" t="s">
         <v>364</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F197" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="0" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3381,10 +3379,10 @@
         <v>367</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F198" s="0" t="s">
-        <v>366</v>
+        <v>8</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="199">
@@ -3392,10 +3390,10 @@
         <v>368</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F199" s="0" t="s">
-        <v>368</v>
+        <v>8</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="200">
@@ -3403,9 +3401,9 @@
         <v>369</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="0" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3414,10 +3412,21 @@
         <v>370</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
         <v>371</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3428,6 +3437,7 @@
     <mergeCell ref="D1"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="F1"/>
+    <mergeCell ref="G2"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
